--- a/data/trans_camb/P31_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P31_3_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +547,27 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +657,15 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>-17,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>11,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>5,91</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-4,92</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,71</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-8,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-10,42</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,06</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-9,08</t>
         </is>
       </c>
     </row>
@@ -639,32 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 4,41</t>
+          <t>-17,7; 5,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 6,67</t>
+          <t>-12,73; 10,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 13,16</t>
+          <t>-30,62; -5,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 2,72</t>
+          <t>-3,31; 25,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 7,03</t>
+          <t>-22,79; 3,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 3,07</t>
+          <t>-3,11; 14,71</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-14,07; 4,75</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-15,4; 5,61</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 11,38</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; 2,81</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 7,29</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-10,34; 4,09</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-19,35; -2,16</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 14,24</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-17,23; 0,1</t>
         </is>
       </c>
     </row>
@@ -677,32 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>-8,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,8%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>-24,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,27%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>-14,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-6,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-5,99%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-9,74%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-4,06%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-14,19%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-11,77%</t>
         </is>
       </c>
     </row>
@@ -715,32 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 6,69</t>
+          <t>-24,19; 8,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 10,34</t>
+          <t>-17,71; 16,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 17,7</t>
+          <t>-41,83; -7,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 3,46</t>
+          <t>-5,44; 60,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 10,07</t>
+          <t>-28,99; 5,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 4,16</t>
+          <t>-3,7; 20,03</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-17,09; 6,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-18,76; 7,5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-12,68; 17,19</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-21,16; 3,61</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 10,34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; 5,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-25,46; -3,03</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 24,66</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-21,28; 0,2</t>
         </is>
       </c>
     </row>
@@ -757,32 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>3,81</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,61</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,31</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,79</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-5,31</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,66</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-4,59</t>
         </is>
       </c>
     </row>
@@ -795,32 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 20,32</t>
+          <t>-0,27; 22,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 12,32</t>
+          <t>-8,22; 14,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 11,85</t>
+          <t>-18,25; 11,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 5,38</t>
+          <t>-8,7; 19,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 13,18</t>
+          <t>-23,32; 1,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 6,84</t>
+          <t>-2,93; 10,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 6,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-13,4; 4,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 14,66</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 10,01</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 14,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 7,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; 4,42</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 14,41</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-11,6; 2,69</t>
         </is>
       </c>
     </row>
@@ -833,32 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>-7,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>-13,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,3%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-6,9%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-5,53%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 32,11</t>
+          <t>-0,15; 36,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 18,57</t>
+          <t>-10,75; 24,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 15,07</t>
+          <t>-24,24; 17,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 6,68</t>
+          <t>-11,89; 35,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 18,37</t>
+          <t>-27,47; 1,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 9,14</t>
+          <t>-3,38; 13,71</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-10,82; 8,64</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; 5,05</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 19,97</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 12,62</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 20,03</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 11,26</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-15,78; 5,73</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 21,63</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; 3,36</t>
         </is>
       </c>
     </row>
@@ -913,32 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,43</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-7,44</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-5,73</t>
         </is>
       </c>
     </row>
@@ -951,32 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 14,79</t>
+          <t>-5,4; 11,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 16,18</t>
+          <t>-4,89; 10,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 4,06</t>
+          <t>-16,15; 3,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 3,05</t>
+          <t>-8,98; 11,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 8,51</t>
+          <t>-17,49; -0,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 8,14</t>
+          <t>-4,91; 4,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 3,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,79; -2,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 11,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,6; 5,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 5,7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 5,89</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-13,08; -1,47</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 8,41</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-10,97; -0,08</t>
         </is>
       </c>
     </row>
@@ -989,32 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>-7,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>-11,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>-0,45%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-9,29%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-1,47%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-8,65%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-6,64%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 21,41</t>
+          <t>-6,19; 14,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 23,37</t>
+          <t>-5,89; 13,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,61</t>
+          <t>-19,34; 3,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 3,48</t>
+          <t>-11,27; 16,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 10,68</t>
+          <t>-20,14; -0,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 9,94</t>
+          <t>-5,39; 5,4</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 3,44</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-14,91; -3,43</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 14,65</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 5,92</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 6,96</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 7,22</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-15,25; -1,8</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 11,34</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; -0,2</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>-5,43</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5,93</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-7,57</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>3,4</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>6,09</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>3,14</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,07</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 15,54</t>
+          <t>1,59; 14,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 10,94</t>
+          <t>-2,93; 10,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 7,76</t>
+          <t>-13,11; 2,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 7,39</t>
+          <t>-2,65; 14,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 9,81</t>
+          <t>-16,36; -0,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 7,45</t>
+          <t>-1,04; 8,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 7,27</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; 3,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 9,69</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 4,62</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 9,45</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 7,27</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-8,76; 0,66</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 10,42</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-8,91; 0,55</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>-8,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-0,33%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-4,64%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-4,54%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 21,04</t>
+          <t>1,97; 19,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 14,82</t>
+          <t>-3,57; 14,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 9,1</t>
+          <t>-16,1; 2,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 8,61</t>
+          <t>-3,41; 21,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 12,11</t>
+          <t>-18,26; -0,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,03</t>
+          <t>-1,15; 9,51</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 8,65</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-8,48; 3,76</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 11,7</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 5,28</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 11,65</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 9,03</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-10,44; 0,75</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 13,67</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; 0,6</t>
         </is>
       </c>
     </row>
@@ -1225,32 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-4,82</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-5,27</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-5,84</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5,55</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-5,31</t>
         </is>
       </c>
     </row>
@@ -1263,32 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 11,37</t>
+          <t>-6,88; 10,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 11,05</t>
+          <t>-5,82; 10,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,78</t>
+          <t>-15,63; 3,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 1,52</t>
+          <t>2,54; 20,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 4,7</t>
+          <t>-11,57; 1,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 4,68</t>
+          <t>-6,03; 3,21</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; 1,75</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 0,57</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 6,65</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-10,88; -0,07</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 5,0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 4,3</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-11,28; -0,43</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 11,32</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-9,78; -1,23</t>
         </is>
       </c>
     </row>
@@ -1301,32 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>-8,54%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,27%</t>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,14%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-5,15%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-5,59%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-0,4%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-6,65%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-5,72%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 15,0</t>
+          <t>-7,96; 13,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 14,66</t>
+          <t>-6,8; 13,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 3,0</t>
+          <t>-18,6; 4,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 1,63</t>
+          <t>3,3; 29,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 5,56</t>
+          <t>-12,4; 2,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 5,44</t>
+          <t>-6,35; 3,51</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 1,96</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-11,0; 0,55</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 7,67</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-11,41; -0,0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 5,88</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 4,97</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-12,56; -0,5</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 14,44</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; -1,38</t>
         </is>
       </c>
     </row>
@@ -1381,32 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-7,76</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-3,97</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-3,28</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
         </is>
       </c>
     </row>
@@ -1419,32 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 3,74</t>
+          <t>-9,06; 3,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 4,54</t>
+          <t>-6,82; 4,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,04; 9,83</t>
+          <t>-9,42; 4,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 7,4</t>
+          <t>-13,37; 2,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,57</t>
+          <t>-15,54; -0,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 4,64</t>
+          <t>-1,34; 6,21</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 4,95</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-10,61; 1,25</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 10,15</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 13,5</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 3,91</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 3,35</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 0,85</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 4,15</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 5,39</t>
         </is>
       </c>
     </row>
@@ -1457,32 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>-2,6%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>-6,59%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-4,22%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-0,06%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-3,52%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-1,05%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 4,21</t>
+          <t>-9,83; 3,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 5,12</t>
+          <t>-7,23; 4,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,06; 11,39</t>
+          <t>-10,03; 4,54</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 8,49</t>
+          <t>-14,72; 2,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 6,16</t>
+          <t>-16,87; -0,35</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 5,21</t>
+          <t>-1,38; 6,81</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 5,35</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-11,08; 1,32</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 11,86</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 16,47</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 4,3</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 3,65</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-7,81; 0,91</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 4,76</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 6,27</t>
         </is>
       </c>
     </row>
@@ -1537,32 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-4,81</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-5,77</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-4,82</t>
         </is>
       </c>
     </row>
@@ -1575,32 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 6,91</t>
+          <t>-1,27; 6,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 5,24</t>
+          <t>-2,07; 5,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,54</t>
+          <t>-10,97; -2,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,48</t>
+          <t>-0,6; 8,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,7</t>
+          <t>-12,87; -4,67</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,62</t>
+          <t>-0,08; 4,49</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 1,34</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; -2,06</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 6,35</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 1,81</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 4,26</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 2,27</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; -3,0</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 6,4</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; -2,41</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>-10,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-5,43%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-6,87%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-5,56%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +2945,84 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 9,16</t>
+          <t>-1,59; 8,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 6,9</t>
+          <t>-2,54; 6,89</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,22</t>
+          <t>-13,79; -3,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,67</t>
+          <t>-0,87; 11,96</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,33; 5,7</t>
+          <t>-14,97; -5,65</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,22</t>
+          <t>-0,1; 5,14</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 1,52</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; -2,35</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 7,69</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 2,08</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 5,16</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 2,73</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-9,86; -3,63</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 8,33</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; -2,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1684,15 +3030,15 @@
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
